--- a/data/lca/mock/carbonization.xlsx
+++ b/data/lca/mock/carbonization.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/repos/onearth/platform-v3-backend/src/data/lca/mock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/repos/onearth/lca/data/lca/mock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E24F8A-0E26-A542-A9E4-947599D780F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD3E66-1D27-7343-93D0-9BC1EE2E278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="3660" windowWidth="26840" windowHeight="15940" xr2:uid="{F4996BA3-8058-BC42-8E4E-EDD9157AD96E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
     <author>tc={F3E97FF8-73EE-B347-976A-E01703E3856C}</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{F3E97FF8-73EE-B347-976A-E01703E3856C}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{F3E97FF8-73EE-B347-976A-E01703E3856C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Unidade Florestal</t>
   </si>
@@ -99,13 +99,19 @@
   </si>
   <si>
     <t>Moinha RMC - Saída</t>
+  </si>
+  <si>
+    <t>Produção de Carvão Vegetal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,12 +139,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +236,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +579,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E5" dT="2024-12-11T18:04:29.67" personId="{0ABCA02E-CA4C-F644-89D9-7D8984FD8E1F}" id="{F3E97FF8-73EE-B347-976A-E01703E3856C}">
+  <threadedComment ref="F5" dT="2024-12-11T18:04:29.67" personId="{0ABCA02E-CA4C-F644-89D9-7D8984FD8E1F}" id="{F3E97FF8-73EE-B347-976A-E01703E3856C}">
     <text>Entender depois</text>
   </threadedComment>
 </ThreadedComments>
@@ -584,23 +587,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F70CF1-3962-D14E-B599-896E7233B376}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="45.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,114 +611,132 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>0.31480000000000002</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12">
+        <v>5005.5044399999997</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5">
         <v>0.31990000000000002</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12">
+        <v>1730.2623799999999</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>0.3211</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12">
+        <v>822.12645999999995</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="10">
+        <v>53.28</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="10">
+        <v>99.08</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{2D890D3B-03F2-4449-9CC3-46E339E7FAD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{2D890D3B-03F2-4449-9CC3-46E339E7FAD9}">
       <formula1>",kg,ton,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{FB80054D-48A0-E64B-AEE7-DE4FAD9B38AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{FB80054D-48A0-E64B-AEE7-DE4FAD9B38AE}">
       <formula1>"Produto Principal,Resíduo,Coproduto"</formula1>
     </dataValidation>
   </dataValidations>
